--- a/Advanced Excel/Index Match.xlsx
+++ b/Advanced Excel/Index Match.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repo\Data Analyst Assignment\Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C4259-692C-4301-B6F4-B91B30C5478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF45AD-1372-4925-8BFA-402FF45B6F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Index Match" sheetId="1" r:id="rId1"/>
+    <sheet name="Index Match 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Index Match 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Head">'Index Match'!$C$5:$G$5</definedName>
+    <definedName name="Head">'Index Match 1'!$C$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Use INDEX, MIN &amp; MATCH to find vendor name with lowest bid</t>
   </si>
@@ -100,13 +101,97 @@
   </si>
   <si>
     <t>Product12</t>
+  </si>
+  <si>
+    <t>Q. The Iist has employee names and badge#s of XYZ Inc.</t>
+  </si>
+  <si>
+    <t>Their Manager name is in the other table, you will need to use the employee badge to lookup their manager in the manager table. Note Managers rotate randomly each month, so your lookup needs to consider the month also</t>
+  </si>
+  <si>
+    <t>Month :</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Employee Table</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Badge#</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Prashanth, Gopi</t>
+  </si>
+  <si>
+    <t>Tank, Ashwini</t>
+  </si>
+  <si>
+    <t>Suri, Aviral</t>
+  </si>
+  <si>
+    <t>Kumar, Ram</t>
+  </si>
+  <si>
+    <t>Tendulkar, Sachin</t>
+  </si>
+  <si>
+    <t>Maradonna, Diego</t>
+  </si>
+  <si>
+    <t>Singh, Robin</t>
+  </si>
+  <si>
+    <t>Kumar, Deepak</t>
+  </si>
+  <si>
+    <t>Manager Table by Month</t>
+  </si>
+  <si>
+    <t>Emp Badge#</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Londo, Mollari</t>
+  </si>
+  <si>
+    <t>Puri, Om</t>
+  </si>
+  <si>
+    <t>Temp Mgr1</t>
+  </si>
+  <si>
+    <t>Prakash, Surya</t>
+  </si>
+  <si>
+    <t>Wayne, John</t>
+  </si>
+  <si>
+    <t>Jain, Anita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +219,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +272,38 @@
         <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -199,20 +341,395 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -499,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -514,373 +1031,373 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>38.99</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>48.6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>43.53</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>40.08</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>47.92</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>MIN(C6:G6)</f>
         <v>38.99</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="5" t="str">
         <f t="shared" ref="I6:I17" si="0">INDEX(Head,MATCH($H6,C6:G6,0))</f>
         <v>Vendor1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>57.68</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>31.8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>52.78</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>31.42</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>55.19</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" ref="H7:H17" si="1">MIN(C7:G7)</f>
         <v>31.42</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor4</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>53.32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>32.64</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>37.69</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>48.29</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>41.59</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>32.64</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>35.200000000000003</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>40.549999999999997</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>32.65</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>36.81</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>41.14</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>32.65</v>
       </c>
-      <c r="I9" s="6" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor3</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>56.72</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>47.16</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>36.42</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>49.56</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>39.25</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>36.42</v>
       </c>
-      <c r="I10" s="6" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor3</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>47.91</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>35.08</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>51.129999999999995</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>49.84</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>42.12</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>35.08</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor2</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>34.81</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>35.11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>48.629999999999995</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>33.32</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>37.83</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>33.32</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor4</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>42.25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>35.76</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>58.6</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>46.28</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>40.53</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>35.76</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor2</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>40.14</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>42.31</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>37.619999999999997</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>59.97</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>42.57</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>37.619999999999997</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor3</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>36.480000000000004</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>40.79</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>53.239999999999995</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>51.010000000000005</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>51.239999999999995</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>36.480000000000004</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor1</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>38.57</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>40.06</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>54.71</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>39.700000000000003</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>54.730000000000004</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>38.57</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor1</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>52.66</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>43.61</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>59.980000000000004</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>34.61</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>52.65</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="shared" si="1"/>
         <v>34.61</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Vendor4</v>
       </c>
@@ -891,4 +1408,381 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87A25D4-703B-4354-B7C5-A6841489BD96}">
+  <dimension ref="B2:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19">
+        <v>87423</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f>INDEX($C$21:$G$28,MATCH(C9,$B$21:$B$28,0),MATCH($C$5,$C$20:$G$20,0))</f>
+        <v>Puri, Om</v>
+      </c>
+      <c r="F9" s="21" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D9)</f>
+        <v>=INDEX($C$21:$G$28,MATCH(C9,$B$21:$B$28,0),MATCH($C$5,$C$20:$G$20,0))</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="19">
+        <v>78312</v>
+      </c>
+      <c r="D10" s="20" t="str">
+        <f t="shared" ref="D10:D16" si="0">INDEX($C$21:$G$28,MATCH(C10,$B$21:$B$28,0),MATCH($C$5,$C$20:$G$20,0))</f>
+        <v>Puri, Om</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="19">
+        <v>98722</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Londo, Mollari</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="19">
+        <v>12235</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Londo, Mollari</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="19">
+        <v>23972</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Londo, Mollari</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="19">
+        <v>56431</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Londo, Mollari</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="19">
+        <v>98362</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Puri, Om</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="24">
+        <v>18739</v>
+      </c>
+      <c r="D16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Puri, Om</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="33">
+        <v>98362</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="36">
+        <v>12235</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="36">
+        <v>78312</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="36">
+        <v>98722</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="36">
+        <v>87423</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="36">
+        <v>56431</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="36">
+        <v>23972</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="39">
+        <v>18739</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{3673AA9C-4937-4478-987F-81C827B23A2F}">
+      <formula1>$C$20:$G$20</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>